--- a/supp_tables/tableS1_metadata.xlsx
+++ b/supp_tables/tableS1_metadata.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haozhou/Desktop/lupus_revised_ARD_final/supp_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{677AC68B-B159-6D4E-AE89-485CCBDB2A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D872F186-F1D0-0B4C-8F30-A82A4EAC6BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16840" activeTab="1"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tableS1_metadata" sheetId="1" r:id="rId1"/>
-    <sheet name="Yale_SLE" sheetId="2" r:id="rId2"/>
+    <sheet name="Yale_SLE_SLEDAI" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10809" uniqueCount="2878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10794" uniqueCount="2857">
   <si>
     <t>study_name</t>
   </si>
@@ -8498,15 +8511,6 @@
     <t xml:space="preserve">SLEDAI </t>
   </si>
   <si>
-    <t>Total blood</t>
-  </si>
-  <si>
-    <t>Total PBMCs</t>
-  </si>
-  <si>
-    <t>Resistant starch content (g consumed per day)</t>
-  </si>
-  <si>
     <t>SLE01v1</t>
   </si>
   <si>
@@ -8516,24 +8520,12 @@
     <t>24</t>
   </si>
   <si>
-    <t>100 ml</t>
-  </si>
-  <si>
-    <t>166 million</t>
-  </si>
-  <si>
     <t>SLE02v1</t>
   </si>
   <si>
     <t>MISSING</t>
   </si>
   <si>
-    <t>101 ml</t>
-  </si>
-  <si>
-    <t>167 million</t>
-  </si>
-  <si>
     <t>SLE03v1</t>
   </si>
   <si>
@@ -8546,9 +8538,6 @@
     <t>22</t>
   </si>
   <si>
-    <t>48.5 million</t>
-  </si>
-  <si>
     <t>SLE04v1</t>
   </si>
   <si>
@@ -8558,113 +8547,74 @@
     <t>34</t>
   </si>
   <si>
-    <t>80 ml</t>
-  </si>
-  <si>
-    <t>108 million</t>
-  </si>
-  <si>
     <t>SLE05v1</t>
   </si>
   <si>
-    <t>16.8</t>
-  </si>
-  <si>
-    <t>81 ml</t>
-  </si>
-  <si>
-    <t>109 million</t>
-  </si>
-  <si>
     <t>SLE06v1</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>85 ml</t>
-  </si>
-  <si>
-    <t>128 million</t>
-  </si>
-  <si>
     <t>SLE07v1</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>360 million</t>
-  </si>
-  <si>
     <t>SLE08v1</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>90 ml</t>
-  </si>
-  <si>
-    <t>70 million</t>
-  </si>
-  <si>
     <t>SLE09v1</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>250 million</t>
-  </si>
-  <si>
     <t>SLE10v1</t>
   </si>
   <si>
-    <t>80 million</t>
-  </si>
-  <si>
     <t>SLE11v1</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>60 million</t>
-  </si>
-  <si>
     <t>SLE12v1</t>
   </si>
   <si>
-    <t>88 ml</t>
-  </si>
-  <si>
     <t>SLE13v1</t>
   </si>
   <si>
-    <t>90ml</t>
-  </si>
-  <si>
-    <t>440 million</t>
-  </si>
-  <si>
     <t>SLE18v1</t>
   </si>
   <si>
-    <t>90mL</t>
-  </si>
-  <si>
-    <t>220 million</t>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>24.4</t>
+  </si>
+  <si>
+    <t>Lupus nephritis</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8809,6 +8759,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -9155,7 +9112,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9184,6 +9141,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9243,9 +9203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9283,7 +9243,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9389,7 +9349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9531,18 +9491,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1558"/>
   <sheetViews>
-    <sheetView topLeftCell="A1465" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="E562" sqref="E562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54207,16 +54167,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2821</v>
       </c>
@@ -54229,298 +54189,220 @@
       <c r="D1" s="2" t="s">
         <v>2824</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2825</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2826</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2827</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>2828</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2829</v>
       </c>
       <c r="C2" s="5">
         <v>23.225074624305215</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2829</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>2830</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>2831</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>2832</v>
       </c>
-      <c r="G2" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>2833</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="E4" s="11" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2836</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>2829</v>
       </c>
-      <c r="C3" s="5">
-        <v>22.883552110818176</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2834</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>2835</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>2836</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>2837</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="E6" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>2838</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>2839</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>2840</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>2831</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>2841</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>2842</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2838</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2843</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2845</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>2846</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>2847</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2838</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2848</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>2834</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>2849</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>2850</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>2851</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>2838</v>
       </c>
       <c r="C7" s="5">
         <v>29.076472976272573</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>2852</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>2853</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>2854</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2839</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>2855</v>
+        <v>2840</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="C8" s="5">
         <v>31.9</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2856</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>2845</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>2857</v>
-      </c>
-      <c r="G8" s="3">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2841</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>2858</v>
+        <v>2842</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
       <c r="C9" s="5">
         <v>21.3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>2859</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>2860</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>2861</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2843</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>2862</v>
+        <v>2844</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="C10" s="5">
         <v>29.5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>2863</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>2853</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>2864</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2845</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>2865</v>
+        <v>2846</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
       <c r="C11" s="5">
         <v>17.399999999999999</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>2834</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>2845</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>2866</v>
-      </c>
-      <c r="G11" s="3">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2829</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>2867</v>
+        <v>2847</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
       <c r="C12" s="5">
         <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>2868</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>2845</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>2869</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2848</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>2870</v>
+        <v>2849</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
       <c r="C13" s="5">
         <v>28.3</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>2868</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>2871</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>2866</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2848</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>2872</v>
+        <v>2850</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
       <c r="C14" s="9">
         <v>25.2</v>
@@ -54528,22 +54410,16 @@
       <c r="D14" s="3">
         <v>38</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>2873</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>2874</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14" s="11" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>2875</v>
+        <v>2851</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
       <c r="C15" s="9">
         <v>36.5</v>
@@ -54551,15 +54427,40 @@
       <c r="D15" s="3">
         <v>10</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>2876</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>2877</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4.42</v>
-      </c>
+      <c r="E15" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H25" s="11"/>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H30" s="11"/>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
